--- a/MaAverageEducationIndex.xlsx
+++ b/MaAverageEducationIndex.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\shared_with_honey\WPI-SCHOOL\courses\cs539 Machine Learning\draftproject\program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\shared_with_honey\WPI-SCHOOL\courses\cs539 Machine Learning\project\CS539-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CE2D575-58A8-4141-82F0-78302C3F1320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53999363-BD66-4219-911A-619CD4321FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,11 +757,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1068,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1080,13 +1079,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2092,24 +2091,24 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+      <c r="A93">
         <v>12.25</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>43</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93">
         <v>2747</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+      <c r="A94">
         <v>12.25</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>43</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94">
         <v>2748</v>
       </c>
     </row>
@@ -4232,7 +4231,7 @@
       <c r="B287" t="s">
         <v>179</v>
       </c>
-      <c r="C287" s="2">
+      <c r="C287" s="1">
         <v>1772</v>
       </c>
     </row>
@@ -4738,7 +4737,7 @@
       <c r="B333" t="s">
         <v>201</v>
       </c>
-      <c r="C333" s="2">
+      <c r="C333" s="1">
         <v>1778</v>
       </c>
     </row>
